--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20200430-cv311/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200426-cv311/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CB387-2459-9446-9372-79D40D3644BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3DFB6E-8252-4C41-8AF6-1C69EF95CB13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28240" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3300" windowWidth="28240" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="export" sheetId="1" r:id="rId1"/>
+    <sheet name="311_incidents" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="190">
   <si>
     <t>Title</t>
   </si>
@@ -437,9 +437,6 @@
     <t>COVID-19 Social Distancing Concern  Painte Park</t>
   </si>
   <si>
-    <t>reason</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -449,15 +446,6 @@
     <t>Whittier Park, Minneapolis, MN</t>
   </si>
   <si>
-    <t>Bethune Park, Minneapolis, MN</t>
-  </si>
-  <si>
-    <t>21ST AVE S and 56TH ST E, Minneapolis, MN</t>
-  </si>
-  <si>
-    <t>EAST MINNEHAHA PKWY and GODFREY PKWY, Minneapolis, MN</t>
-  </si>
-  <si>
     <t>JOHNSON ST NE and LOWRY AVE NE, Minneapolis, MN</t>
   </si>
   <si>
@@ -482,9 +470,6 @@
     <t>12TH AVE S and 27TH ST E, Minneapolis, MN</t>
   </si>
   <si>
-    <t>Lake Harriet Bandstand, Minneapolis, MN</t>
-  </si>
-  <si>
     <t>DEAN PKWY and 28TH ST W, Minneapolis, MN</t>
   </si>
   <si>
@@ -506,10 +491,112 @@
     <t>25TH ST E and 29TH AVE S, Minneapolis, MN</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25TH ST E and 29TH AVE S, Minneapolis, MN</t>
-  </si>
-  <si>
     <t>24TH ST E and 27TH AVE S, Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Steward Park</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  East Phillips Park</t>
+  </si>
+  <si>
+    <t>2300 CEDAR AVE S  Minneapolis, MN 55404</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Audubon Park</t>
+  </si>
+  <si>
+    <t>Soccer and Tennis</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Traingle Park</t>
+  </si>
+  <si>
+    <t>1501 54TH ST E  Minneapolis, MN 55417</t>
+  </si>
+  <si>
+    <t>Congregating by picnic tables</t>
+  </si>
+  <si>
+    <t>2840 LINCOLN ST NE  Minneapolis, MN 55418</t>
+  </si>
+  <si>
+    <t>Volleyball and congregating</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  McCrae Park</t>
+  </si>
+  <si>
+    <t>310 15TH ST W  Minneapolis, MN 55403</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Peavey Park</t>
+  </si>
+  <si>
+    <t>3412 15TH AVE S  Minneapolis, MN 55407</t>
+  </si>
+  <si>
+    <t>800 HUMBOLDT AVE N  Minneapolis, MN 55411</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Bryn Mawr Park</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Painters Park</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Armatage</t>
+  </si>
+  <si>
+    <t>2500 57TH ST W  Minneapolis, MN 55419</t>
+  </si>
+  <si>
+    <t>Large group picnic</t>
+  </si>
+  <si>
+    <t>821 35TH ST E  Minneapolis, MN 55407</t>
+  </si>
+  <si>
+    <t>2601 10TH AVE S  Minneapolis, MN 55407</t>
+  </si>
+  <si>
+    <t>Basketball and volleyball</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Bossen Field</t>
+  </si>
+  <si>
+    <t>5601 28TH AVE S  Minneapolis, MN 55417</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Lake Hiawatha</t>
+  </si>
+  <si>
+    <t>COVID-19 Social Distancing Concern  Pershing Park</t>
+  </si>
+  <si>
+    <t>3523 48TH ST W  Minneapolis, MN 55410</t>
+  </si>
+  <si>
+    <t>Hockey at tennis court</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>EAST MINNEHAHA PKWY and GODFREY PKWY</t>
+  </si>
+  <si>
+    <t>Bde Maka Ska Park, Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>DERBY AVE and WOODLAWN BLVD, Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>Bethune Park,  Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>EMERSON AVE N and 10TH AVE N, Minneapolis, MN</t>
   </si>
 </sst>
 </file>
@@ -993,9 +1080,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1351,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1453,7 @@
     <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,1481 +1464,1481 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1">
-        <v>43927</v>
+        <v>43945</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>44.955501556396399</v>
+        <v>44.955390000000001</v>
       </c>
       <c r="F2">
-        <v>-93.284317016601506</v>
+        <v>-93.259839999999997</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1">
-        <v>43929</v>
+        <v>43944</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>44.934170000000002</v>
+        <v>44.959969999999998</v>
       </c>
       <c r="F3">
-        <v>-93.265000000000001</v>
+        <v>-93.248639999999995</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
-        <v>43931</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>43944</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
       </c>
       <c r="E4">
-        <v>44.949820000000003</v>
+        <v>45.020046000000001</v>
       </c>
       <c r="F4">
-        <v>-93.313879999999997</v>
+        <v>-93.239712999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1">
-        <v>43929</v>
+        <v>43944</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="E5">
-        <v>45.011400000000002</v>
+        <v>44.903280000000002</v>
       </c>
       <c r="F5">
-        <v>-93.237179999999995</v>
+        <v>-93.250470000000007</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>43928</v>
+        <v>43944</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E6">
-        <v>45.029490000000003</v>
+        <v>44.969391000000002</v>
       </c>
       <c r="F6">
-        <v>-93.235839999999996</v>
+        <v>-93.259703000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1">
-        <v>43927</v>
+        <v>43944</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E7">
-        <v>44.941319999999997</v>
+        <v>45.01972</v>
       </c>
       <c r="F7">
-        <v>-93.288139999999999</v>
+        <v>-93.239090000000004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>43927</v>
+        <v>43944</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E8">
-        <v>44.942909999999998</v>
+        <v>44.918385000000001</v>
       </c>
       <c r="F8">
-        <v>-93.288120000000006</v>
+        <v>-93.261089999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1">
-        <v>43928</v>
+        <v>43944</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>45.013199999999998</v>
+        <v>44.968290000000003</v>
       </c>
       <c r="F9">
-        <v>-93.237170000000006</v>
+        <v>-93.284570000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
-        <v>43927</v>
+        <v>43944</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E10">
-        <v>44.916649999999997</v>
+        <v>44.961796999999997</v>
       </c>
       <c r="F10">
-        <v>-93.213214999999906</v>
+        <v>-93.263835999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E11">
-        <v>44.901710000000001</v>
+        <v>44.961796999999997</v>
       </c>
       <c r="F11">
-        <v>-93.242450000000005</v>
+        <v>-93.263835999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E12">
-        <v>44.951979999999999</v>
+        <v>44.959969999999998</v>
       </c>
       <c r="F12">
-        <v>-93.317279999999997</v>
+        <v>-93.248639999999995</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1">
-        <v>43928</v>
+        <v>43943</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E13">
-        <v>44.986809999999998</v>
+        <v>44.942729999999997</v>
       </c>
       <c r="F13">
-        <v>-93.254840000000002</v>
+        <v>-93.259270000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1">
-        <v>43928</v>
+        <v>43943</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E14">
-        <v>44.934069999999998</v>
+        <v>44.987090000000002</v>
       </c>
       <c r="F14">
-        <v>-93.290779999999998</v>
+        <v>-93.296340000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1">
-        <v>43928</v>
+        <v>43943</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E15">
-        <v>44.951970000000003</v>
+        <v>44.971754037384002</v>
       </c>
       <c r="F15">
-        <v>-93.220370000000003</v>
+        <v>-93.305193087435498</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>43928</v>
+        <v>43943</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>44.923279999999998</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F16">
-        <v>-93.232150000000004</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E17">
-        <v>44.926879999999997</v>
+        <v>44.900320000000001</v>
       </c>
       <c r="F17">
-        <v>-93.232119999999995</v>
+        <v>-93.310890000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>43929</v>
+        <v>43943</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E18">
-        <v>44.957360000000001</v>
+        <v>44.961796999999997</v>
       </c>
       <c r="F18">
-        <v>-93.229879999999994</v>
+        <v>-93.263835999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1">
-        <v>43928</v>
+        <v>43943</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>44.957360000000001</v>
+        <v>44.939219999999999</v>
       </c>
       <c r="F19">
-        <v>-93.229879999999994</v>
+        <v>-93.261643000000007</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E20">
-        <v>44.957360000000001</v>
+        <v>45.020046000000001</v>
       </c>
       <c r="F20">
-        <v>-93.229879999999994</v>
+        <v>-93.239712999999995</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E21">
-        <v>44.959159999999997</v>
+        <v>44.94140633</v>
       </c>
       <c r="F21">
-        <v>-93.233029999999999</v>
+        <v>-93.254659329999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1">
-        <v>43927</v>
+        <v>43942</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E22">
-        <v>44.979019165038999</v>
+        <v>44.955530000000003</v>
       </c>
       <c r="F22">
-        <v>-93.264938354492102</v>
+        <v>-93.259829999999994</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
       </c>
       <c r="E23">
-        <v>44.987518310546797</v>
+        <v>45.020046000000001</v>
       </c>
       <c r="F23">
-        <v>-93.298149108886705</v>
+        <v>-93.239712999999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
-        <v>43931</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>43942</v>
+      </c>
+      <c r="D24" t="s">
+        <v>177</v>
       </c>
       <c r="E24">
-        <v>44.918385000000001</v>
+        <v>45.020046000000001</v>
       </c>
       <c r="F24">
-        <v>-93.261089999999996</v>
+        <v>-93.239712999999995</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1">
-        <v>43929</v>
+        <v>43942</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E25">
-        <v>44.918385000000001</v>
+        <v>44.899900000000002</v>
       </c>
       <c r="F25">
-        <v>-93.261089999999996</v>
+        <v>-93.229810000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>43928</v>
+        <v>43941</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E26">
-        <v>44.961796999999997</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F26">
-        <v>-93.263835999999998</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E27">
-        <v>44.961796999999997</v>
+        <v>44.923102</v>
       </c>
       <c r="F27">
-        <v>-93.263835999999998</v>
+        <v>-93.233643999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>43934</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>43941</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
       </c>
       <c r="E28">
-        <v>44.992736999999998</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F28">
-        <v>-93.269242000000006</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1">
-        <v>43928</v>
+        <v>43941</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E29">
-        <v>44.992736999999998</v>
+        <v>44.988129999999998</v>
       </c>
       <c r="F29">
-        <v>-93.269242000000006</v>
+        <v>-93.2941</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="E30">
-        <v>44.992736999999998</v>
+        <v>44.915410000000001</v>
       </c>
       <c r="F30">
-        <v>-93.269242000000006</v>
+        <v>-93.322829999999996</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1">
-        <v>43937</v>
+        <v>43941</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E31">
-        <v>45.008910999999998</v>
+        <v>44.962291999999998</v>
       </c>
       <c r="F31">
-        <v>-93.285510000000002</v>
+        <v>-93.307689999999994</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>43929</v>
+        <v>43941</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E32">
-        <v>45.008910999999998</v>
+        <v>44.923102</v>
       </c>
       <c r="F32">
-        <v>-93.285510000000002</v>
+        <v>-93.233643999999998</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>43928</v>
+        <v>43941</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E33">
-        <v>45.008910999999998</v>
+        <v>44.969391000000002</v>
       </c>
       <c r="F33">
-        <v>-93.285510000000002</v>
+        <v>-93.259703000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E34">
-        <v>45.008910999999998</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F34">
-        <v>-93.285510000000002</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E35">
-        <v>45.008910999999998</v>
+        <v>44.953710000000001</v>
       </c>
       <c r="F35">
-        <v>-93.285510000000002</v>
+        <v>-93.257540000000006</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1">
         <v>43941</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E36">
-        <v>44.941344999999998</v>
+        <v>44.971754037384002</v>
       </c>
       <c r="F36">
-        <v>-93.287423329999996</v>
+        <v>-93.305193087435498</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E37">
-        <v>44.941344999999998</v>
+        <v>44.964585999999997</v>
       </c>
       <c r="F37">
-        <v>-93.287423329999996</v>
+        <v>-93.274653999999998</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1">
-        <v>43929</v>
+        <v>43938</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E38">
-        <v>44.941344999999998</v>
+        <v>44.955390000000001</v>
       </c>
       <c r="F38">
-        <v>-93.287423329999996</v>
+        <v>-93.259839999999997</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>43928</v>
+        <v>43938</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E39">
-        <v>44.941344999999998</v>
+        <v>44.923102</v>
       </c>
       <c r="F39">
-        <v>-93.287423329999996</v>
+        <v>-93.233643999999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="C40" s="1">
-        <v>43928</v>
+        <v>43938</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E40">
-        <v>44.941344999999998</v>
+        <v>44.987518310546797</v>
       </c>
       <c r="F40">
-        <v>-93.287423329999996</v>
+        <v>-93.298149108886705</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E41">
-        <v>44.971754037384002</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F41">
-        <v>-93.305193087435498</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1">
-        <v>43928</v>
+        <v>43938</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E42">
-        <v>44.902868499999997</v>
+        <v>44.94140633</v>
       </c>
       <c r="F42">
-        <v>-93.216092829999994</v>
+        <v>-93.254659329999996</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1">
-        <v>43927</v>
+        <v>43938</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E43">
-        <v>44.902868499999997</v>
+        <v>44.932119999999998</v>
       </c>
       <c r="F43">
-        <v>-93.216092829999994</v>
+        <v>-93.291370000000001</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
-        <v>43927</v>
+        <v>43937</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E44">
-        <v>44.902868499999997</v>
+        <v>44.923102</v>
       </c>
       <c r="F44">
-        <v>-93.216092829999994</v>
+        <v>-93.233643999999998</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>43928</v>
+        <v>43937</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E45">
-        <v>45.046683999999999</v>
+        <v>44.987606999999997</v>
       </c>
       <c r="F45">
-        <v>-93.305267000000001</v>
+        <v>-93.295850000000002</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
-        <v>43929</v>
+        <v>43937</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46">
-        <v>44.920108999999997</v>
+        <v>44.959751670000003</v>
       </c>
       <c r="F46">
-        <v>-93.313911000000004</v>
+        <v>-93.230646669999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
-        <v>43928</v>
+        <v>43937</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E47">
-        <v>44.926496329999999</v>
+        <v>45.008910999999998</v>
       </c>
       <c r="F47">
-        <v>-93.211233500000006</v>
+        <v>-93.285510000000002</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>43934</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>43936</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
       </c>
       <c r="E48">
-        <v>44.925980000000003</v>
+        <v>44.943071000000003</v>
       </c>
       <c r="F48">
-        <v>-93.320120000000003</v>
+        <v>-93.245743000000004</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>44.984466362730799</v>
+        <v>44.969391000000002</v>
       </c>
       <c r="F49">
-        <v>-93.252953838416701</v>
+        <v>-93.259703000000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>43928</v>
-      </c>
-      <c r="D50" t="s">
-        <v>91</v>
+        <v>43934</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E50">
-        <v>44.927534000000001</v>
+        <v>44.940278999999997</v>
       </c>
       <c r="F50">
-        <v>-93.294990999999996</v>
+        <v>-93.270488</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1">
-        <v>43928</v>
-      </c>
-      <c r="D51" t="s">
+        <v>43934</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E51">
-        <v>44.929293999999999</v>
+        <v>44.925980000000003</v>
       </c>
       <c r="F51">
-        <v>-93.277390999999994</v>
+        <v>-93.320120000000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>43927</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
+        <v>43934</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E52">
-        <v>44.929293999999999</v>
+        <v>44.992736999999998</v>
       </c>
       <c r="F52">
-        <v>-93.277390999999994</v>
+        <v>-93.269242000000006</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>43938</v>
-      </c>
-      <c r="D53" t="s">
-        <v>104</v>
+        <v>43931</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>44.932119999999998</v>
+        <v>44.969391000000002</v>
       </c>
       <c r="F53">
-        <v>-93.291370000000001</v>
+        <v>-93.259703000000002</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E54">
-        <v>44.934007999999999</v>
+        <v>44.94140633</v>
       </c>
       <c r="F54">
-        <v>-93.232304999999997</v>
+        <v>-93.254659329999996</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E55">
-        <v>44.940278999999997</v>
+        <v>44.987606999999997</v>
       </c>
       <c r="F55">
-        <v>-93.270488</v>
+        <v>-93.295850000000002</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1">
-        <v>43928</v>
-      </c>
-      <c r="D56" t="s">
+        <v>43931</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E56">
-        <v>44.940278999999997</v>
+        <v>44.918385000000001</v>
       </c>
       <c r="F56">
-        <v>-93.270488</v>
+        <v>-93.261089999999996</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1">
-        <v>43938</v>
-      </c>
-      <c r="D57" t="s">
-        <v>122</v>
+        <v>43931</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E57">
-        <v>44.94140633</v>
+        <v>44.949820000000003</v>
       </c>
       <c r="F57">
-        <v>-93.254659329999996</v>
+        <v>-93.313879999999997</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E58">
-        <v>44.94140633</v>
+        <v>44.984466362730799</v>
       </c>
       <c r="F58">
-        <v>-93.254659329999996</v>
+        <v>-93.252953838416701</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
-        <v>43928</v>
-      </c>
-      <c r="D59" t="s">
-        <v>49</v>
+        <v>43930</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E59">
-        <v>44.94140633</v>
+        <v>44.956994130120101</v>
       </c>
       <c r="F59">
-        <v>-93.254659329999996</v>
+        <v>-93.291790840150398</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1">
-        <v>43927</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
+        <v>43930</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E60">
-        <v>44.94140633</v>
+        <v>44.934007999999999</v>
       </c>
       <c r="F60">
-        <v>-93.254659329999996</v>
+        <v>-93.232304999999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
-        <v>43936</v>
+        <v>43929</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E61">
-        <v>44.943071000000003</v>
+        <v>44.911769999999997</v>
       </c>
       <c r="F61">
-        <v>-93.245743000000004</v>
+        <v>-93.299750000000003</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E62">
-        <v>44.925299170000002</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F62">
-        <v>-93.31946567</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E63">
-        <v>44.946075439453097</v>
+        <v>45.008910999999998</v>
       </c>
       <c r="F63">
-        <v>-93.286842346191406</v>
+        <v>-93.285510000000002</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C64" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E64">
-        <v>44.952758000000003</v>
+        <v>44.934170000000002</v>
       </c>
       <c r="F64">
-        <v>-93.218467000000004</v>
+        <v>-93.265000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C65" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="E65">
-        <v>44.952758000000003</v>
+        <v>44.920108999999997</v>
       </c>
       <c r="F65">
-        <v>-93.218467000000004</v>
+        <v>-93.313911000000004</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1">
-        <v>43941</v>
+        <v>43929</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E66">
-        <v>44.923102</v>
+        <v>44.957360000000001</v>
       </c>
       <c r="F66">
-        <v>-93.233643999999998</v>
+        <v>-93.229879999999994</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>43938</v>
+        <v>43929</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E67">
-        <v>44.923102</v>
+        <v>44.969391000000002</v>
       </c>
       <c r="F67">
-        <v>-93.233643999999998</v>
+        <v>-93.259703000000002</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C68" s="1">
-        <v>43937</v>
+        <v>43929</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="E68">
-        <v>44.923102</v>
+        <v>45.011400000000002</v>
       </c>
       <c r="F68">
-        <v>-93.233643999999998</v>
+        <v>-93.237179999999995</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C69" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D69" t="s">
         <v>53</v>
       </c>
       <c r="E69">
-        <v>44.923102</v>
+        <v>44.918385000000001</v>
       </c>
       <c r="F69">
-        <v>-93.233643999999998</v>
+        <v>-93.261089999999996</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1">
-        <v>43930</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>104</v>
+        <v>43929</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
       </c>
       <c r="E70">
-        <v>44.956994130120101</v>
+        <v>44.959751670000003</v>
       </c>
       <c r="F70">
-        <v>-93.291790840150398</v>
+        <v>-93.230646669999999</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E71">
-        <v>44.958350000000003</v>
+        <v>44.969113</v>
       </c>
       <c r="F71">
-        <v>-93.303247999999996</v>
+        <v>-93.281124000000005</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E72">
-        <v>44.958350000000003</v>
+        <v>45.030054999999997</v>
       </c>
       <c r="F72">
-        <v>-93.303247999999996</v>
+        <v>-93.234466670000003</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
-        <v>43937</v>
+        <v>43928</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="E73">
-        <v>44.959751670000003</v>
+        <v>44.941344999999998</v>
       </c>
       <c r="F73">
-        <v>-93.230646669999999</v>
+        <v>-93.287423329999996</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E74">
-        <v>44.959751670000003</v>
+        <v>44.940278999999997</v>
       </c>
       <c r="F74">
-        <v>-93.230646669999999</v>
+        <v>-93.270488</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1">
         <v>43928</v>
@@ -2859,10 +2947,10 @@
         <v>53</v>
       </c>
       <c r="E75">
-        <v>44.959751670000003</v>
+        <v>44.923279999999998</v>
       </c>
       <c r="F75">
-        <v>-93.230646669999999</v>
+        <v>-93.232150000000004</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2870,107 +2958,107 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="C76" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E76">
-        <v>44.959751670000003</v>
+        <v>44.957360000000001</v>
       </c>
       <c r="F76">
-        <v>-93.230646669999999</v>
+        <v>-93.229879999999994</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E77">
-        <v>44.959751670000003</v>
+        <v>44.986809999999998</v>
       </c>
       <c r="F77">
-        <v>-93.230646669999999</v>
+        <v>-93.254840000000002</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C78" s="1">
-        <v>43941</v>
+        <v>43928</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E78">
-        <v>44.962291999999998</v>
+        <v>44.962606468521201</v>
       </c>
       <c r="F78">
-        <v>-93.307689999999994</v>
+        <v>-93.315777414691794</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1">
         <v>43928</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E79">
-        <v>44.962606468521201</v>
+        <v>45.013199999999998</v>
       </c>
       <c r="F79">
-        <v>-93.315777414691794</v>
+        <v>-93.237170000000006</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E80">
-        <v>45.030054999999997</v>
+        <v>44.923102</v>
       </c>
       <c r="F80">
-        <v>-93.234466670000003</v>
+        <v>-93.233643999999998</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C81" s="1">
         <v>43928</v>
@@ -2979,58 +3067,58 @@
         <v>49</v>
       </c>
       <c r="E81">
-        <v>45.030054999999997</v>
+        <v>44.902868499999997</v>
       </c>
       <c r="F81">
-        <v>-93.234466670000003</v>
+        <v>-93.216092829999994</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
-        <v>43941</v>
+        <v>43928</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E82">
-        <v>44.964585999999997</v>
+        <v>44.969113</v>
       </c>
       <c r="F82">
-        <v>-93.274653999999998</v>
+        <v>-93.281124000000005</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E83">
-        <v>44.969113</v>
+        <v>44.969391000000002</v>
       </c>
       <c r="F83">
-        <v>-93.281124000000005</v>
+        <v>-93.259703000000002</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1">
         <v>43928</v>
@@ -3039,238 +3127,238 @@
         <v>53</v>
       </c>
       <c r="E84">
-        <v>44.969113</v>
+        <v>44.961796999999997</v>
       </c>
       <c r="F84">
-        <v>-93.281124000000005</v>
+        <v>-93.263835999999998</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E85">
-        <v>44.969113</v>
+        <v>45.008910999999998</v>
       </c>
       <c r="F85">
-        <v>-93.281124000000005</v>
+        <v>-93.285510000000002</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C86" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E86">
-        <v>44.911769999999997</v>
+        <v>44.927534000000001</v>
       </c>
       <c r="F86">
-        <v>-93.299750000000003</v>
+        <v>-93.294990999999996</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C87" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D87" t="s">
         <v>53</v>
       </c>
       <c r="E87">
-        <v>45.020046000000001</v>
+        <v>45.046683999999999</v>
       </c>
       <c r="F87">
-        <v>-93.239712999999995</v>
+        <v>-93.305267000000001</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C88" s="1">
-        <v>43937</v>
+        <v>43928</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E88">
-        <v>44.987606999999997</v>
+        <v>44.992736999999998</v>
       </c>
       <c r="F88">
-        <v>-93.295850000000002</v>
+        <v>-93.269242000000006</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1">
-        <v>43931</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>53</v>
+        <v>43928</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
       </c>
       <c r="E89">
-        <v>44.987606999999997</v>
+        <v>44.958350000000003</v>
       </c>
       <c r="F89">
-        <v>-93.295850000000002</v>
+        <v>-93.303247999999996</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1">
-        <v>43941</v>
+        <v>43928</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="E90">
-        <v>44.953710000000001</v>
+        <v>44.946075439453097</v>
       </c>
       <c r="F90">
-        <v>-93.257540000000006</v>
+        <v>-93.286842346191406</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1">
-        <v>43938</v>
+        <v>43928</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="E91">
-        <v>44.955390000000001</v>
+        <v>44.934069999999998</v>
       </c>
       <c r="F91">
-        <v>-93.259839999999997</v>
+        <v>-93.290779999999998</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C92" s="1">
-        <v>43941</v>
+        <v>43928</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="E92">
-        <v>44.969391000000002</v>
+        <v>44.959751670000003</v>
       </c>
       <c r="F92">
-        <v>-93.259703000000002</v>
+        <v>-93.230646669999999</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1">
-        <v>43934</v>
-      </c>
-      <c r="D93" s="1" t="s">
+        <v>43928</v>
+      </c>
+      <c r="D93" t="s">
         <v>49</v>
       </c>
       <c r="E93">
-        <v>44.969391000000002</v>
+        <v>45.029490000000003</v>
       </c>
       <c r="F93">
-        <v>-93.259703000000002</v>
+        <v>-93.235839999999996</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C94" s="1">
-        <v>43931</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>49</v>
+        <v>43928</v>
+      </c>
+      <c r="D94" t="s">
+        <v>53</v>
       </c>
       <c r="E94">
-        <v>44.969391000000002</v>
+        <v>44.925299170000002</v>
       </c>
       <c r="F94">
-        <v>-93.259703000000002</v>
+        <v>-93.31946567</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C95" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="E95">
-        <v>44.969391000000002</v>
+        <v>44.929293999999999</v>
       </c>
       <c r="F95">
-        <v>-93.259703000000002</v>
+        <v>-93.277390999999994</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C96" s="1">
         <v>43928</v>
@@ -3279,31 +3367,911 @@
         <v>49</v>
       </c>
       <c r="E96">
-        <v>44.969391000000002</v>
+        <v>45.030054999999997</v>
       </c>
       <c r="F96">
-        <v>-93.259703000000002</v>
+        <v>-93.234466670000003</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43928</v>
+      </c>
+      <c r="D97" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97">
+        <v>44.941344999999998</v>
+      </c>
+      <c r="F97">
+        <v>-93.287423329999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43928</v>
+      </c>
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98">
+        <v>44.94140633</v>
+      </c>
+      <c r="F98">
+        <v>-93.254659329999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43928</v>
+      </c>
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99">
+        <v>44.926496329999999</v>
+      </c>
+      <c r="F99">
+        <v>-93.211233500000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43928</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100">
+        <v>44.951970000000003</v>
+      </c>
+      <c r="F100">
+        <v>-93.220370000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101">
+        <v>44.957360000000001</v>
+      </c>
+      <c r="F101">
+        <v>-93.229879999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D102" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102">
+        <v>44.959751670000003</v>
+      </c>
+      <c r="F102">
+        <v>-93.230646669999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103">
+        <v>44.959159999999997</v>
+      </c>
+      <c r="F103">
+        <v>-93.233029999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104">
+        <v>44.94140633</v>
+      </c>
+      <c r="F104">
+        <v>-93.254659329999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105">
+        <v>44.952758000000003</v>
+      </c>
+      <c r="F105">
+        <v>-93.218467000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106">
+        <v>44.951979999999999</v>
+      </c>
+      <c r="F106">
+        <v>-93.317279999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D107" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107">
+        <v>44.958350000000003</v>
+      </c>
+      <c r="F107">
+        <v>-93.303247999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D108" t="s">
+        <v>53</v>
+      </c>
+      <c r="E108">
+        <v>44.955501556396399</v>
+      </c>
+      <c r="F108">
+        <v>-93.284317016601506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D109" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109">
+        <v>44.992736999999998</v>
+      </c>
+      <c r="F109">
+        <v>-93.269242000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D110" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110">
+        <v>44.941319999999997</v>
+      </c>
+      <c r="F110">
+        <v>-93.288139999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D111" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111">
+        <v>44.926879999999997</v>
+      </c>
+      <c r="F111">
+        <v>-93.232119999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D112" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112">
+        <v>44.969113</v>
+      </c>
+      <c r="F112">
+        <v>-93.281124000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D113" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113">
+        <v>44.916649999999997</v>
+      </c>
+      <c r="F113">
+        <v>-93.213214999999906</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E114">
+        <v>44.959751670000003</v>
+      </c>
+      <c r="F114">
+        <v>-93.230646669999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D115" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115">
+        <v>44.979019165038999</v>
+      </c>
+      <c r="F115">
+        <v>-93.264938354492102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>61</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B116" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C116" s="1">
         <v>43927</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D116" t="s">
         <v>60</v>
       </c>
-      <c r="E97">
+      <c r="E116">
         <v>44.980392000000002</v>
       </c>
-      <c r="F97">
+      <c r="F116">
         <v>-93.259338</v>
       </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D117" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117">
+        <v>44.942909999999998</v>
+      </c>
+      <c r="F117">
+        <v>-93.288120000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118">
+        <v>44.901710000000001</v>
+      </c>
+      <c r="F118">
+        <v>-93.242450000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D119" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119">
+        <v>45.020046000000001</v>
+      </c>
+      <c r="F119">
+        <v>-93.239712999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D120" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120">
+        <v>45.008910999999998</v>
+      </c>
+      <c r="F120">
+        <v>-93.285510000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121">
+        <v>45.008910999999998</v>
+      </c>
+      <c r="F121">
+        <v>-93.285510000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122">
+        <v>44.961796999999997</v>
+      </c>
+      <c r="F122">
+        <v>-93.263835999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D123" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123">
+        <v>44.952758000000003</v>
+      </c>
+      <c r="F123">
+        <v>-93.218467000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124">
+        <v>44.902868499999997</v>
+      </c>
+      <c r="F124">
+        <v>-93.216092829999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D125" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125">
+        <v>44.902868499999997</v>
+      </c>
+      <c r="F125">
+        <v>-93.216092829999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="1">
+        <v>43927</v>
+      </c>
+      <c r="D126" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126">
+        <v>44.929293999999999</v>
+      </c>
+      <c r="F126">
+        <v>-93.277390999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:F97">
